--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.674698829384737</v>
+        <v>0.7503183333333333</v>
       </c>
       <c r="H2">
-        <v>0.674698829384737</v>
+        <v>2.250955</v>
       </c>
       <c r="I2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="J2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N2">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>8.310797086669087</v>
+        <v>9.270987849798889</v>
       </c>
       <c r="R2">
-        <v>8.310797086669087</v>
+        <v>83.43889064819</v>
       </c>
       <c r="S2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="T2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>382.495329618537</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H3">
-        <v>382.495329618537</v>
+        <v>1149.392303</v>
       </c>
       <c r="I3">
-        <v>0.9558979779419177</v>
+        <v>0.9557508602453543</v>
       </c>
       <c r="J3">
-        <v>0.9558979779419177</v>
+        <v>0.9557508602453542</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N3">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>4711.496348610949</v>
+        <v>4733.991606125118</v>
       </c>
       <c r="R3">
-        <v>4711.496348610949</v>
+        <v>42605.92445512606</v>
       </c>
       <c r="S3">
-        <v>0.9558979779419177</v>
+        <v>0.9557508602453543</v>
       </c>
       <c r="T3">
-        <v>0.9558979779419177</v>
+        <v>0.9557508602453542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.9723909785353</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H4">
-        <v>16.9723909785353</v>
+        <v>50.963353</v>
       </c>
       <c r="I4">
-        <v>0.04241587533474363</v>
+        <v>0.04237740964821621</v>
       </c>
       <c r="J4">
-        <v>0.04241587533474363</v>
+        <v>0.0423774096482162</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N4">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>209.0623124792557</v>
+        <v>209.9022976683283</v>
       </c>
       <c r="R4">
-        <v>209.0623124792557</v>
+        <v>1889.120679014954</v>
       </c>
       <c r="S4">
-        <v>0.04241587533474363</v>
+        <v>0.04237740964821621</v>
       </c>
       <c r="T4">
-        <v>0.04241587533474363</v>
+        <v>0.0423774096482162</v>
       </c>
     </row>
   </sheetData>
